--- a/spillacg2020from.xlsx
+++ b/spillacg2020from.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0bc2f1dc68cd9768/ukrain war/ukrainn war/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_E6EA7ECE8F79A8D366075C52F37BD2729AC0A9A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B93983A5-D2CB-4454-B215-0DE9B1D28085}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="11_E6EA7ECE8F79A8D366075C52F37BD2729AC0A9A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1240C115-BDEA-4D01-8D67-157443C929A0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-40C]mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-40C]mmm\-yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -90,7 +90,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -202,7 +202,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -26076,13 +26079,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26115,10 +26118,10 @@
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26151,10 +26154,10 @@
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>439616</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:rowOff>7327</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26187,10 +26190,10 @@
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>300404</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>65942</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26223,10 +26226,10 @@
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>534866</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>139212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26577,8 +26580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F727"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M82" sqref="M82"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
